--- a/docs/original/High Level Project Plan and Activity Tracker v1.0.xlsx
+++ b/docs/original/High Level Project Plan and Activity Tracker v1.0.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11214"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kalpeshchavda/Library/CloudStorage/OneDrive-DiligentTechIndiaPvt.Ltd/Projects/FuelSphere/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://diligentindia-my.sharepoint.com/personal/kalpesh_chavda_diligentglobal_com/Documents/Projects/FuelSphere/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FD3A13-13E9-6043-A7E3-4507857FC741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="44" documentId="13_ncr:1_{D2FD3A13-13E9-6043-A7E3-4507857FC741}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C2065D3-17A3-DC42-AE65-71332F634E25}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17400" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17400" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
     <sheet name="Detailed Activities" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="6" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="257">
   <si>
     <t>Project Phases</t>
   </si>
@@ -810,9 +809,6 @@
   </si>
   <si>
     <t>Pending</t>
-  </si>
-  <si>
-    <t>In progress</t>
   </si>
 </sst>
 </file>
@@ -1222,7 +1218,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1335,7 +1331,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -5230,9 +5225,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9085FB1-8AA3-40A5-95D0-A5D342C642FF}">
   <dimension ref="A1:AL100"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G80" sqref="G80:G85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5806,7 +5801,7 @@
         <v>42</v>
       </c>
       <c r="G9" s="46" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H9" s="36" t="s">
         <v>40</v>
@@ -5914,7 +5909,7 @@
         <v>59</v>
       </c>
       <c r="G11" s="46" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="H11" s="37"/>
       <c r="I11" s="22" t="s">
@@ -6666,7 +6661,7 @@
         <v>132</v>
       </c>
       <c r="G26" s="38" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H26" s="20"/>
       <c r="I26" s="20"/>
@@ -6720,7 +6715,7 @@
         <v>133</v>
       </c>
       <c r="G27" s="38" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H27" s="20"/>
       <c r="I27" s="20"/>
@@ -6774,7 +6769,7 @@
         <v>58</v>
       </c>
       <c r="G28" s="38" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H28" s="20"/>
       <c r="I28" s="20"/>
@@ -6828,7 +6823,7 @@
         <v>119</v>
       </c>
       <c r="G29" s="38" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H29" s="20"/>
       <c r="I29" s="20"/>
@@ -7350,7 +7345,7 @@
         <v>59</v>
       </c>
       <c r="G39" s="38" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="H39" s="20"/>
       <c r="I39" s="20"/>
@@ -7404,7 +7399,7 @@
         <v>119</v>
       </c>
       <c r="G40" s="38" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="H40" s="20"/>
       <c r="I40" s="20"/>
@@ -7457,7 +7452,9 @@
       <c r="F41" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="G41" s="38"/>
+      <c r="G41" s="38" t="s">
+        <v>255</v>
+      </c>
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
       <c r="J41" s="20"/>
@@ -7509,7 +7506,9 @@
       <c r="F42" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="G42" s="38"/>
+      <c r="G42" s="38" t="s">
+        <v>255</v>
+      </c>
       <c r="H42" s="20"/>
       <c r="I42" s="20"/>
       <c r="J42" s="20"/>
@@ -7561,7 +7560,9 @@
       <c r="F43" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="G43" s="38"/>
+      <c r="G43" s="38" t="s">
+        <v>255</v>
+      </c>
       <c r="H43" s="20"/>
       <c r="I43" s="20"/>
       <c r="J43" s="20"/>
@@ -7613,7 +7614,9 @@
       <c r="F44" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="G44" s="38"/>
+      <c r="G44" s="38" t="s">
+        <v>255</v>
+      </c>
       <c r="H44" s="20"/>
       <c r="I44" s="20"/>
       <c r="J44" s="20"/>
@@ -7665,7 +7668,9 @@
       <c r="F45" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="G45" s="38"/>
+      <c r="G45" s="38" t="s">
+        <v>255</v>
+      </c>
       <c r="H45" s="20"/>
       <c r="I45" s="20"/>
       <c r="J45" s="20"/>
@@ -7717,7 +7722,9 @@
       <c r="F46" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="G46" s="38"/>
+      <c r="G46" s="38" t="s">
+        <v>256</v>
+      </c>
       <c r="H46" s="20"/>
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
@@ -7769,7 +7776,9 @@
       <c r="F47" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="G47" s="38"/>
+      <c r="G47" s="38" t="s">
+        <v>255</v>
+      </c>
       <c r="H47" s="20"/>
       <c r="I47" s="20"/>
       <c r="J47" s="20"/>
@@ -7821,7 +7830,9 @@
       <c r="F48" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="G48" s="38"/>
+      <c r="G48" s="38" t="s">
+        <v>255</v>
+      </c>
       <c r="H48" s="20"/>
       <c r="I48" s="20"/>
       <c r="J48" s="20"/>
@@ -7873,7 +7884,9 @@
       <c r="F49" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="G49" s="38"/>
+      <c r="G49" s="38" t="s">
+        <v>255</v>
+      </c>
       <c r="H49" s="20"/>
       <c r="I49" s="20"/>
       <c r="J49" s="20"/>
@@ -8017,7 +8030,9 @@
       <c r="F52" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="G52" s="38"/>
+      <c r="G52" s="38" t="s">
+        <v>255</v>
+      </c>
       <c r="H52" s="20"/>
       <c r="I52" s="20"/>
       <c r="J52" s="20"/>
@@ -8069,7 +8084,9 @@
       <c r="F53" s="38" t="s">
         <v>185</v>
       </c>
-      <c r="G53" s="38"/>
+      <c r="G53" s="38" t="s">
+        <v>255</v>
+      </c>
       <c r="H53" s="20"/>
       <c r="I53" s="20"/>
       <c r="J53" s="20"/>
@@ -8121,7 +8138,9 @@
       <c r="F54" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="G54" s="38"/>
+      <c r="G54" s="38" t="s">
+        <v>233</v>
+      </c>
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
       <c r="J54" s="20"/>
@@ -8173,7 +8192,9 @@
       <c r="F55" s="38" t="s">
         <v>187</v>
       </c>
-      <c r="G55" s="38"/>
+      <c r="G55" s="38" t="s">
+        <v>233</v>
+      </c>
       <c r="H55" s="20"/>
       <c r="I55" s="20"/>
       <c r="J55" s="20"/>
@@ -8225,7 +8246,9 @@
       <c r="F56" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="G56" s="38"/>
+      <c r="G56" s="38" t="s">
+        <v>233</v>
+      </c>
       <c r="H56" s="20"/>
       <c r="I56" s="20"/>
       <c r="J56" s="20"/>
@@ -8277,7 +8300,9 @@
       <c r="F57" s="38" t="s">
         <v>189</v>
       </c>
-      <c r="G57" s="38"/>
+      <c r="G57" s="38" t="s">
+        <v>233</v>
+      </c>
       <c r="H57" s="20"/>
       <c r="I57" s="20"/>
       <c r="J57" s="20"/>
@@ -8329,7 +8354,9 @@
       <c r="F58" s="38" t="s">
         <v>190</v>
       </c>
-      <c r="G58" s="38"/>
+      <c r="G58" s="38" t="s">
+        <v>233</v>
+      </c>
       <c r="H58" s="20"/>
       <c r="I58" s="20"/>
       <c r="J58" s="20"/>
@@ -8381,7 +8408,9 @@
       <c r="F59" s="38" t="s">
         <v>191</v>
       </c>
-      <c r="G59" s="38"/>
+      <c r="G59" s="38" t="s">
+        <v>233</v>
+      </c>
       <c r="H59" s="20"/>
       <c r="I59" s="20"/>
       <c r="J59" s="20"/>
@@ -8433,7 +8462,9 @@
       <c r="F60" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="G60" s="38"/>
+      <c r="G60" s="38" t="s">
+        <v>233</v>
+      </c>
       <c r="H60" s="20"/>
       <c r="I60" s="20"/>
       <c r="J60" s="20"/>
@@ -8485,7 +8516,9 @@
       <c r="F61" s="38" t="s">
         <v>192</v>
       </c>
-      <c r="G61" s="38"/>
+      <c r="G61" s="38" t="s">
+        <v>233</v>
+      </c>
       <c r="H61" s="20"/>
       <c r="I61" s="20"/>
       <c r="J61" s="20"/>
@@ -8537,7 +8570,9 @@
       <c r="F62" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="G62" s="38"/>
+      <c r="G62" s="38" t="s">
+        <v>233</v>
+      </c>
       <c r="H62" s="20"/>
       <c r="I62" s="20"/>
       <c r="J62" s="20"/>
@@ -8589,7 +8624,9 @@
       <c r="F63" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="G63" s="38"/>
+      <c r="G63" s="38" t="s">
+        <v>233</v>
+      </c>
       <c r="H63" s="20"/>
       <c r="I63" s="20"/>
       <c r="J63" s="20"/>
@@ -8641,7 +8678,9 @@
       <c r="F64" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="G64" s="38"/>
+      <c r="G64" s="38" t="s">
+        <v>233</v>
+      </c>
       <c r="H64" s="20"/>
       <c r="I64" s="20"/>
       <c r="J64" s="20"/>
@@ -8693,7 +8732,9 @@
       <c r="F65" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="G65" s="38"/>
+      <c r="G65" s="38" t="s">
+        <v>233</v>
+      </c>
       <c r="H65" s="20"/>
       <c r="I65" s="20"/>
       <c r="J65" s="20"/>
@@ -8745,7 +8786,9 @@
       <c r="F66" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="G66" s="38"/>
+      <c r="G66" s="38" t="s">
+        <v>233</v>
+      </c>
       <c r="H66" s="20"/>
       <c r="I66" s="20"/>
       <c r="J66" s="20"/>
@@ -8797,7 +8840,9 @@
       <c r="F67" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="G67" s="38"/>
+      <c r="G67" s="38" t="s">
+        <v>233</v>
+      </c>
       <c r="H67" s="20"/>
       <c r="I67" s="20"/>
       <c r="J67" s="20"/>
@@ -8964,7 +9009,9 @@
       <c r="F71" s="38" t="s">
         <v>114</v>
       </c>
-      <c r="G71" s="38"/>
+      <c r="G71" s="38" t="s">
+        <v>256</v>
+      </c>
       <c r="H71" s="20"/>
       <c r="I71" s="20"/>
       <c r="J71" s="20"/>
@@ -9016,7 +9063,9 @@
       <c r="F72" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="G72" s="38"/>
+      <c r="G72" s="38" t="s">
+        <v>256</v>
+      </c>
       <c r="H72" s="20"/>
       <c r="I72" s="20"/>
       <c r="J72" s="20"/>
@@ -9068,7 +9117,9 @@
       <c r="F73" s="38" t="s">
         <v>218</v>
       </c>
-      <c r="G73" s="38"/>
+      <c r="G73" s="38" t="s">
+        <v>256</v>
+      </c>
       <c r="H73" s="20"/>
       <c r="I73" s="20"/>
       <c r="J73" s="20"/>
@@ -9120,7 +9171,9 @@
       <c r="F74" s="38" t="s">
         <v>219</v>
       </c>
-      <c r="G74" s="38"/>
+      <c r="G74" s="38" t="s">
+        <v>256</v>
+      </c>
       <c r="H74" s="20"/>
       <c r="I74" s="20"/>
       <c r="J74" s="20"/>
@@ -9172,7 +9225,9 @@
       <c r="F75" s="38" t="s">
         <v>220</v>
       </c>
-      <c r="G75" s="38"/>
+      <c r="G75" s="38" t="s">
+        <v>256</v>
+      </c>
       <c r="H75" s="20"/>
       <c r="I75" s="20"/>
       <c r="J75" s="20"/>
@@ -9376,7 +9431,9 @@
       <c r="F80" s="38" t="s">
         <v>234</v>
       </c>
-      <c r="G80" s="38"/>
+      <c r="G80" s="38" t="s">
+        <v>256</v>
+      </c>
       <c r="H80" s="20"/>
       <c r="I80" s="20"/>
       <c r="J80" s="20"/>
@@ -9426,7 +9483,9 @@
       <c r="F81" s="38" t="s">
         <v>235</v>
       </c>
-      <c r="G81" s="38"/>
+      <c r="G81" s="38" t="s">
+        <v>256</v>
+      </c>
       <c r="H81" s="20"/>
       <c r="I81" s="20"/>
       <c r="J81" s="20"/>
@@ -9476,7 +9535,9 @@
       <c r="F82" s="38" t="s">
         <v>236</v>
       </c>
-      <c r="G82" s="38"/>
+      <c r="G82" s="38" t="s">
+        <v>256</v>
+      </c>
       <c r="H82" s="20"/>
       <c r="I82" s="20"/>
       <c r="J82" s="20"/>
@@ -9526,7 +9587,9 @@
       <c r="F83" s="38" t="s">
         <v>237</v>
       </c>
-      <c r="G83" s="38"/>
+      <c r="G83" s="38" t="s">
+        <v>256</v>
+      </c>
       <c r="H83" s="20"/>
       <c r="I83" s="20"/>
       <c r="J83" s="20"/>
@@ -9576,7 +9639,9 @@
       <c r="F84" s="38" t="s">
         <v>238</v>
       </c>
-      <c r="G84" s="38"/>
+      <c r="G84" s="38" t="s">
+        <v>256</v>
+      </c>
       <c r="H84" s="20"/>
       <c r="I84" s="20"/>
       <c r="J84" s="20"/>
@@ -9626,7 +9691,9 @@
       <c r="F85" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="G85" s="38"/>
+      <c r="G85" s="38" t="s">
+        <v>256</v>
+      </c>
       <c r="H85" s="20"/>
       <c r="I85" s="20"/>
       <c r="J85" s="20"/>
@@ -10229,73 +10296,4 @@
   <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4F57E3-21B5-3E4A-A834-25F511445283}">
-  <dimension ref="D5:E10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="5" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D5" s="54">
-        <v>0.15</v>
-      </c>
-      <c r="E5">
-        <f>D5*$E$10</f>
-        <v>112500</v>
-      </c>
-    </row>
-    <row r="6" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D6" s="54">
-        <v>0.3</v>
-      </c>
-      <c r="E6">
-        <f t="shared" ref="E6:E9" si="0">D6*$E$10</f>
-        <v>225000</v>
-      </c>
-    </row>
-    <row r="7" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D7" s="54">
-        <v>0.3</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>225000</v>
-      </c>
-    </row>
-    <row r="8" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D8" s="54">
-        <v>0.15</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="0"/>
-        <v>112500</v>
-      </c>
-    </row>
-    <row r="9" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D9" s="54">
-        <v>0.1</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="0"/>
-        <v>75000</v>
-      </c>
-    </row>
-    <row r="10" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D10" s="54">
-        <f>SUM(D5:D9)</f>
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>750000</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>